--- a/biology/Médecine/Johann_Vesling/Johann_Vesling.xlsx
+++ b/biology/Médecine/Johann_Vesling/Johann_Vesling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Vesling (1598-1649) est un chirurgien et anatomiste vénitien d'origine saxonne. On lui doit les premières descriptions du système lymphatique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passa sa jeunesse à Vienne, où avec son père il étudia la médecine. En 1628 il fut nommé chirurgien-préparateur à l'école médicale de Venise.
 Au terme de plusieurs années de voyage en Égypte et à Jérusalem, il devint médecin attitré du conseil vénitien. Ces voyages lui avaient permis d'approfondir ses connaissances des plantes médicinales et de la flore méditerranéenne.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De plantis Aegyptiis observationes et notae ad Prosperum Alpinum cum additamento aliarum ejusdem regionis, 1638 — Prospero Alpini (1553-1617), professeur de botanique à Padoue
 Syntagma anatomicum (éd. Paulo Frambotto, Padoue, 1647).
